--- a/eval/functional/loc.xlsx
+++ b/eval/functional/loc.xlsx
@@ -248,6 +248,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -638,6 +639,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1002,6 +1004,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -2933,13 +2936,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>110488</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>24763</xdr:rowOff>
+      <xdr:rowOff>24762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>400047</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9522</xdr:rowOff>
+      <xdr:rowOff>9521</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3610,6 +3613,21 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>5138</v>
+      </c>
+      <c r="C5">
+        <v>3448</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">

--- a/eval/functional/loc.xlsx
+++ b/eval/functional/loc.xlsx
@@ -3614,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5138</v>
+        <v>5375</v>
       </c>
       <c r="C5">
         <v>3448</v>
